--- a/Выборы и способности.xlsx
+++ b/Выборы и способности.xlsx
@@ -1,26 +1,299 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\site\Umotion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D55BCF-4036-49D7-BB4D-6190394F95BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Сюжет" sheetId="1" r:id="rId1"/>
+    <sheet name="Боевая система" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+  <si>
+    <t>День 1</t>
+  </si>
+  <si>
+    <t>Сон 1</t>
+  </si>
+  <si>
+    <t>День 2</t>
+  </si>
+  <si>
+    <t>Сон 2</t>
+  </si>
+  <si>
+    <t>День 3</t>
+  </si>
+  <si>
+    <t>Сон 3</t>
+  </si>
+  <si>
+    <t>День 4</t>
+  </si>
+  <si>
+    <t>Сон 4</t>
+  </si>
+  <si>
+    <t>День 5</t>
+  </si>
+  <si>
+    <t>Сон 5</t>
+  </si>
+  <si>
+    <t>День 6</t>
+  </si>
+  <si>
+    <t>Сон 6</t>
+  </si>
+  <si>
+    <t>Итоги</t>
+  </si>
+  <si>
+    <t>Событие</t>
+  </si>
+  <si>
+    <t>Эмоция</t>
+  </si>
+  <si>
+    <t>Страх</t>
+  </si>
+  <si>
+    <t>Радость</t>
+  </si>
+  <si>
+    <t>Спокойствие</t>
+  </si>
+  <si>
+    <t>Персонажи</t>
+  </si>
+  <si>
+    <t>Важные решения</t>
+  </si>
+  <si>
+    <t>Момент сохранения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Гордость</t>
+  </si>
+  <si>
+    <t>Грусть</t>
+  </si>
+  <si>
+    <t>Автобус💫</t>
+  </si>
+  <si>
+    <t>Встреча врага детства, но изменившегося</t>
+  </si>
+  <si>
+    <t>Безумие</t>
+  </si>
+  <si>
+    <t>Ничего не произошло</t>
+  </si>
+  <si>
+    <t>Отношение</t>
+  </si>
+  <si>
+    <t>Темперамент</t>
+  </si>
+  <si>
+    <t>Удивление, обновление, смена мнения о себе и нём</t>
+  </si>
+  <si>
+    <t>Локация</t>
+  </si>
+  <si>
+    <t>Автобус</t>
+  </si>
+  <si>
+    <t>Лёгкое раздажение</t>
+  </si>
+  <si>
+    <t>Встреча давнего друга, но тот даже не помнит его</t>
+  </si>
+  <si>
+    <t>Забота, разочарование</t>
+  </si>
+  <si>
+    <t>///////////////////////</t>
+  </si>
+  <si>
+    <t>Поликлиника</t>
+  </si>
+  <si>
+    <t>Тех, автобус, поликлиника, улица митинга, торговый центр</t>
+  </si>
+  <si>
+    <t>Увлечённость, любезность</t>
+  </si>
+  <si>
+    <t>Шоссе</t>
+  </si>
+  <si>
+    <t>Грустный Водила</t>
+  </si>
+  <si>
+    <t>Дом, Остановка, салон автобуса</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>….......-</t>
+  </si>
+  <si>
+    <t>…......+</t>
+  </si>
+  <si>
+    <t>Бьёт</t>
+  </si>
+  <si>
+    <t>.....-</t>
+  </si>
+  <si>
+    <t>Игрок</t>
+  </si>
+  <si>
+    <t>Враг</t>
+  </si>
+  <si>
+    <t>Ты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Стен</t>
+  </si>
+  <si>
+    <t>Энди</t>
+  </si>
+  <si>
+    <t>маленький Энди</t>
+  </si>
+  <si>
+    <t>Скептицизм</t>
+  </si>
+  <si>
+    <t>Вежливость</t>
+  </si>
+  <si>
+    <t>Водителю показалось, что он разбился и умер</t>
+  </si>
+  <si>
+    <t>Ты и энди вспоминаете детство</t>
+  </si>
+  <si>
+    <t>Старый Стэн</t>
+  </si>
+  <si>
+    <t>Ты осознаёшь, что тебе понравилось спать</t>
+  </si>
+  <si>
+    <t>Ты ругаешься с ним но миришься</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,15 +302,71 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD9EF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +374,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="20% — акцент2" xfId="4" builtinId="34"/>
+    <cellStyle name="40% — акцент5" xfId="8" builtinId="47"/>
+    <cellStyle name="60% — акцент2" xfId="5" builtinId="36"/>
+    <cellStyle name="60% — акцент4" xfId="6" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="7" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Процентный" xfId="10" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="9" builtinId="3"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9F97F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBC265"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="FFFBC265"/>
+      <color rgb="FFD9F97F"/>
+      <color rgb="FFEC5656"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFCD9EF6"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF820082"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -73,7 +616,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="14407A"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -330,13 +873,545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="20"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED44B05-1F72-4849-94C6-FDC8FD4731E4}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:H9">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="....-">
+      <formula>NOT(ISERROR(SEARCH("....-",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:H10">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=".....+">
+      <formula>NOT(ISERROR(SEARCH(".....+",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{D1836D50-14CF-433D-A614-793D4D950903}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C4)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{871E9556-390D-4D19-B04B-205C5ED89D15}">
+            <xm:f>NOT(ISERROR(SEARCH("+",C4)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C4:H9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Выборы и способности.xlsx
+++ b/Выборы и способности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\site\Umotion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D55BCF-4036-49D7-BB4D-6190394F95BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6CAA6-FE79-48FF-B6C6-BECEF9E752BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>День 1</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Ты ругаешься с ним но миришься</t>
+  </si>
+  <si>
+    <t>Перемещение во времени после падения</t>
+  </si>
+  <si>
+    <t>Паника/спокойствие, еда для успокоения</t>
+  </si>
+  <si>
+    <t>Часовщик</t>
+  </si>
+  <si>
+    <t>Часовой магазин</t>
   </si>
 </sst>
 </file>
@@ -232,12 +244,20 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,29 +412,29 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,16 +453,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -451,30 +471,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% — акцент2" xfId="4" builtinId="34"/>
@@ -524,72 +545,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFBC265"/>
       <color rgb="FFD9F97F"/>
@@ -616,7 +571,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="14407A"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -877,13 +832,13 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -951,8 +906,12 @@
       <c r="C2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
       <c r="H2" s="23" t="s">
@@ -985,7 +944,7 @@
       <c r="C3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="29" t="s">
@@ -1025,8 +984,12 @@
         <v>40</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="21"/>
       <c r="H4" s="19" t="s">
         <v>37</v>
@@ -1098,13 +1061,15 @@
       <c r="M6" s="20"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1171,7 +1136,7 @@
       <c r="G10" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Выборы и способности.xlsx
+++ b/Выборы и способности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\site\Umotion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6CAA6-FE79-48FF-B6C6-BECEF9E752BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B1EEE-9E7C-45F9-819A-5958E7636591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>День 1</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Забота, разочарование</t>
   </si>
   <si>
-    <t>///////////////////////</t>
-  </si>
-  <si>
     <t>Поликлиника</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Часовой магазин</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,38 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,7 +455,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -496,6 +528,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% — акцент2" xfId="4" builtinId="34"/>
@@ -545,6 +596,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFBC265"/>
       <color rgb="FFD9F97F"/>
@@ -571,7 +688,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="14407A"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -832,7 +949,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +971,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -868,10 +985,10 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -904,33 +1021,35 @@
         <v>24</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37">
+        <v>0</v>
+      </c>
       <c r="H2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -950,8 +1069,11 @@
       <c r="E3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="38" t="s">
         <v>26</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>23</v>
@@ -960,10 +1082,10 @@
         <v>16</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>17</v>
@@ -978,21 +1100,23 @@
         <v>31</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
       <c r="H4" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="19" t="s">
@@ -1000,7 +1124,7 @@
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>21</v>
@@ -1015,29 +1139,33 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
       <c r="H5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="J5" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -1049,11 +1177,15 @@
       <c r="C6" s="20"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="40">
+        <v>0</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
@@ -1068,11 +1200,13 @@
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42"/>
       <c r="H7" s="19"/>
       <c r="I7" s="20"/>
       <c r="J7" s="19"/>
@@ -1091,8 +1225,8 @@
       <c r="C8" s="20"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="19" t="s">
         <v>35</v>
       </c>
@@ -1115,10 +1249,10 @@
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>21</v>
@@ -1181,15 +1315,15 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>16</v>
@@ -1215,22 +1349,22 @@
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1238,22 +1372,22 @@
         <v>17</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1261,11 +1395,11 @@
         <v>22</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -1276,20 +1410,20 @@
         <v>15</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1298,17 +1432,17 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1317,15 +1451,15 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
